--- a/INTLINE/data/134/DEUSTATIS/old/Foreign trade - EU.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/old/Foreign trade - EU.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1480" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2009" uniqueCount="73">
   <si>
     <t>Exports and imports (foreign trade): Germany, months,
 countries</t>
@@ -223,13 +223,16 @@
     <t>2021</t>
   </si>
   <si>
+    <t>2022</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
     <t>______________</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-12-28 / 11:08:12</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-04-01 / 03:44:54</t>
   </si>
 </sst>
 </file>
@@ -1340,12 +1343,14 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="26" max="16384" style="7" width="12.7109375" collapsed="true"/>
-    <col min="17" max="24" style="7" width="12.7109375" collapsed="true"/>
-    <col min="25" max="25" style="7" width="18.72265625" collapsed="true" customWidth="true"/>
+    <col min="19" max="24" style="7" width="12.7109375" collapsed="true"/>
+    <col min="17" max="17" style="7" width="12.7109375" collapsed="true"/>
     <col min="14" max="15" style="7" width="12.7109375" collapsed="true"/>
     <col min="16" max="16" style="7" width="12.75" collapsed="true" customWidth="true"/>
     <col min="3" max="12" style="7" width="12.7109375" collapsed="true"/>
-    <col min="13" max="13" style="7" width="18.72265625" collapsed="false" customWidth="true"/>
+    <col min="25" max="25" style="7" width="18.72265625" collapsed="true" customWidth="true"/>
+    <col min="13" max="13" style="7" width="18.72265625" collapsed="true" customWidth="true"/>
+    <col min="18" max="18" style="7" width="13.5703125" collapsed="false" customWidth="true"/>
     <col min="1" max="1" style="7" width="12.7109375" collapsed="false"/>
     <col min="4" max="4" width="8.8984375" customWidth="true"/>
     <col min="9" max="9" width="8.8984375" customWidth="true"/>
@@ -46247,82 +46252,82 @@
         <v>35</v>
       </c>
       <c r="D538" t="n" s="10">
-        <v>4303238.0</v>
+        <v>4311418.0</v>
       </c>
       <c r="E538" t="n" s="10">
-        <v>357026.0</v>
+        <v>356814.0</v>
       </c>
       <c r="F538" t="n" s="10">
-        <v>1564999.0</v>
+        <v>1565449.0</v>
       </c>
       <c r="G538" t="n" s="10">
-        <v>190576.0</v>
+        <v>190672.0</v>
       </c>
       <c r="H538" t="n" s="10">
-        <v>966871.0</v>
+        <v>966730.0</v>
       </c>
       <c r="I538" t="n" s="10">
-        <v>8408276.0</v>
+        <v>8412761.0</v>
       </c>
       <c r="J538" t="n" s="10">
-        <v>533530.0</v>
+        <v>533874.0</v>
       </c>
       <c r="K538" t="n" s="10">
-        <v>657947.0</v>
+        <v>657881.0</v>
       </c>
       <c r="L538" t="n" s="10">
-        <v>6105061.0</v>
+        <v>6103069.0</v>
       </c>
       <c r="M538" t="n" s="10">
-        <v>310616.0</v>
+        <v>310441.0</v>
       </c>
       <c r="N538" t="n" s="10">
-        <v>184528.0</v>
+        <v>184500.0</v>
       </c>
       <c r="O538" t="n" s="10">
-        <v>327600.0</v>
+        <v>327582.0</v>
       </c>
       <c r="P538" t="n" s="10">
-        <v>529386.0</v>
+        <v>529396.0</v>
       </c>
       <c r="Q538" t="n" s="10">
-        <v>40730.0</v>
+        <v>40643.0</v>
       </c>
       <c r="R538" t="n" s="10">
-        <v>7702651.0</v>
+        <v>7700728.0</v>
       </c>
       <c r="S538" t="n" s="10">
-        <v>5914486.0</v>
+        <v>5912971.0</v>
       </c>
       <c r="T538" t="n" s="10">
-        <v>6194445.0</v>
+        <v>6193602.0</v>
       </c>
       <c r="U538" t="n" s="10">
-        <v>831926.0</v>
+        <v>831621.0</v>
       </c>
       <c r="V538" t="n" s="10">
-        <v>1501149.0</v>
+        <v>1501343.0</v>
       </c>
       <c r="W538" t="n" s="10">
-        <v>2204329.0</v>
+        <v>2202951.0</v>
       </c>
       <c r="X538" t="n" s="10">
-        <v>1324533.0</v>
+        <v>1326197.0</v>
       </c>
       <c r="Y538" t="n" s="10">
-        <v>480672.0</v>
+        <v>480392.0</v>
       </c>
       <c r="Z538" t="n" s="10">
-        <v>3726025.0</v>
+        <v>3724571.0</v>
       </c>
       <c r="AA538" t="n" s="10">
-        <v>3874341.0</v>
+        <v>3872686.0</v>
       </c>
       <c r="AB538" t="n" s="10">
-        <v>2340034.0</v>
+        <v>2337401.0</v>
       </c>
       <c r="AC538" t="n" s="10">
-        <v>56884.0</v>
+        <v>57054.0</v>
       </c>
     </row>
     <row r="539">
@@ -46333,82 +46338,82 @@
         <v>35</v>
       </c>
       <c r="D539" t="n" s="10">
-        <v>4452964.0</v>
+        <v>4450328.0</v>
       </c>
       <c r="E539" t="n" s="10">
-        <v>416958.0</v>
+        <v>415383.0</v>
       </c>
       <c r="F539" t="n" s="10">
-        <v>967085.0</v>
+        <v>964997.0</v>
       </c>
       <c r="G539" t="n" s="10">
-        <v>64281.0</v>
+        <v>64124.0</v>
       </c>
       <c r="H539" t="n" s="10">
-        <v>626481.0</v>
+        <v>624061.0</v>
       </c>
       <c r="I539" t="n" s="10">
-        <v>4920305.0</v>
+        <v>4923479.0</v>
       </c>
       <c r="J539" t="n" s="10">
-        <v>225436.0</v>
+        <v>224800.0</v>
       </c>
       <c r="K539" t="n" s="10">
-        <v>1449558.0</v>
+        <v>1449814.0</v>
       </c>
       <c r="L539" t="n" s="10">
-        <v>5287765.0</v>
+        <v>5277560.0</v>
       </c>
       <c r="M539" t="n" s="10">
-        <v>151323.0</v>
+        <v>150637.0</v>
       </c>
       <c r="N539" t="n" s="10">
-        <v>81535.0</v>
+        <v>81243.0</v>
       </c>
       <c r="O539" t="n" s="10">
-        <v>194427.0</v>
+        <v>194467.0</v>
       </c>
       <c r="P539" t="n" s="10">
-        <v>279086.0</v>
+        <v>273928.0</v>
       </c>
       <c r="Q539" t="n" s="10">
-        <v>40720.0</v>
+        <v>40504.0</v>
       </c>
       <c r="R539" t="n" s="10">
-        <v>7938010.0</v>
+        <v>7915872.0</v>
       </c>
       <c r="S539" t="n" s="10">
-        <v>3757221.0</v>
+        <v>3747381.0</v>
       </c>
       <c r="T539" t="n" s="10">
-        <v>5414618.0</v>
+        <v>5402924.0</v>
       </c>
       <c r="U539" t="n" s="10">
-        <v>576603.0</v>
+        <v>576482.0</v>
       </c>
       <c r="V539" t="n" s="10">
-        <v>1265437.0</v>
+        <v>1262287.0</v>
       </c>
       <c r="W539" t="n" s="10">
-        <v>1260631.0</v>
+        <v>1256043.0</v>
       </c>
       <c r="X539" t="n" s="10">
-        <v>1334753.0</v>
+        <v>1329168.0</v>
       </c>
       <c r="Y539" t="n" s="10">
-        <v>558480.0</v>
+        <v>557407.0</v>
       </c>
       <c r="Z539" t="n" s="10">
-        <v>2873770.0</v>
+        <v>2891183.0</v>
       </c>
       <c r="AA539" t="n" s="10">
-        <v>4251207.0</v>
+        <v>4241459.0</v>
       </c>
       <c r="AB539" t="n" s="10">
-        <v>2477986.0</v>
+        <v>2472922.0</v>
       </c>
       <c r="AC539" t="n" s="10">
-        <v>20165.0</v>
+        <v>20106.0</v>
       </c>
     </row>
     <row r="540">
@@ -46422,82 +46427,82 @@
         <v>35</v>
       </c>
       <c r="D540" t="n" s="10">
-        <v>4074343.0</v>
+        <v>4074308.0</v>
       </c>
       <c r="E540" t="n" s="10">
-        <v>371104.0</v>
+        <v>373244.0</v>
       </c>
       <c r="F540" t="n" s="10">
-        <v>1652513.0</v>
+        <v>1649606.0</v>
       </c>
       <c r="G540" t="n" s="10">
-        <v>187091.0</v>
+        <v>186994.0</v>
       </c>
       <c r="H540" t="n" s="10">
-        <v>968874.0</v>
+        <v>965930.0</v>
       </c>
       <c r="I540" t="n" s="10">
-        <v>8326312.0</v>
+        <v>8331474.0</v>
       </c>
       <c r="J540" t="n" s="10">
-        <v>515108.0</v>
+        <v>515944.0</v>
       </c>
       <c r="K540" t="n" s="10">
-        <v>637061.0</v>
+        <v>636978.0</v>
       </c>
       <c r="L540" t="n" s="10">
-        <v>6140423.0</v>
+        <v>6147869.0</v>
       </c>
       <c r="M540" t="n" s="10">
-        <v>325310.0</v>
+        <v>325503.0</v>
       </c>
       <c r="N540" t="n" s="10">
-        <v>165761.0</v>
+        <v>166133.0</v>
       </c>
       <c r="O540" t="n" s="10">
-        <v>355274.0</v>
+        <v>355187.0</v>
       </c>
       <c r="P540" t="n" s="10">
-        <v>575974.0</v>
+        <v>576850.0</v>
       </c>
       <c r="Q540" t="n" s="10">
-        <v>36001.0</v>
+        <v>35707.0</v>
       </c>
       <c r="R540" t="n" s="10">
-        <v>7925075.0</v>
+        <v>7925364.0</v>
       </c>
       <c r="S540" t="n" s="10">
-        <v>5789097.0</v>
+        <v>5791961.0</v>
       </c>
       <c r="T540" t="n" s="10">
-        <v>6324745.0</v>
+        <v>6326251.0</v>
       </c>
       <c r="U540" t="n" s="10">
-        <v>805549.0</v>
+        <v>803885.0</v>
       </c>
       <c r="V540" t="n" s="10">
-        <v>1459757.0</v>
+        <v>1462332.0</v>
       </c>
       <c r="W540" t="n" s="10">
-        <v>2231227.0</v>
+        <v>2229489.0</v>
       </c>
       <c r="X540" t="n" s="10">
-        <v>1233827.0</v>
+        <v>1232056.0</v>
       </c>
       <c r="Y540" t="n" s="10">
-        <v>505973.0</v>
+        <v>505599.0</v>
       </c>
       <c r="Z540" t="n" s="10">
-        <v>3700238.0</v>
+        <v>3698404.0</v>
       </c>
       <c r="AA540" t="n" s="10">
-        <v>3963566.0</v>
+        <v>3959446.0</v>
       </c>
       <c r="AB540" t="n" s="10">
-        <v>2461845.0</v>
+        <v>2455732.0</v>
       </c>
       <c r="AC540" t="n" s="10">
-        <v>50915.0</v>
+        <v>51619.0</v>
       </c>
     </row>
     <row r="541">
@@ -46508,82 +46513,82 @@
         <v>35</v>
       </c>
       <c r="D541" t="n" s="10">
-        <v>4310570.0</v>
+        <v>4297374.0</v>
       </c>
       <c r="E541" t="n" s="10">
-        <v>467201.0</v>
+        <v>463783.0</v>
       </c>
       <c r="F541" t="n" s="10">
-        <v>1003109.0</v>
+        <v>995819.0</v>
       </c>
       <c r="G541" t="n" s="10">
-        <v>73499.0</v>
+        <v>74135.0</v>
       </c>
       <c r="H541" t="n" s="10">
-        <v>718414.0</v>
+        <v>713179.0</v>
       </c>
       <c r="I541" t="n" s="10">
-        <v>4773762.0</v>
+        <v>4753283.0</v>
       </c>
       <c r="J541" t="n" s="10">
-        <v>252321.0</v>
+        <v>253134.0</v>
       </c>
       <c r="K541" t="n" s="10">
-        <v>2238678.0</v>
+        <v>2237632.0</v>
       </c>
       <c r="L541" t="n" s="10">
-        <v>5607270.0</v>
+        <v>5593383.0</v>
       </c>
       <c r="M541" t="n" s="10">
-        <v>171274.0</v>
+        <v>170575.0</v>
       </c>
       <c r="N541" t="n" s="10">
-        <v>90094.0</v>
+        <v>90045.0</v>
       </c>
       <c r="O541" t="n" s="10">
-        <v>217841.0</v>
+        <v>219517.0</v>
       </c>
       <c r="P541" t="n" s="10">
-        <v>259044.0</v>
+        <v>259389.0</v>
       </c>
       <c r="Q541" t="n" s="10">
-        <v>44447.0</v>
+        <v>43958.0</v>
       </c>
       <c r="R541" t="n" s="10">
-        <v>8407778.0</v>
+        <v>8362778.0</v>
       </c>
       <c r="S541" t="n" s="10">
-        <v>3834236.0</v>
+        <v>3808254.0</v>
       </c>
       <c r="T541" t="n" s="10">
-        <v>5622874.0</v>
+        <v>5601731.0</v>
       </c>
       <c r="U541" t="n" s="10">
-        <v>601288.0</v>
+        <v>599730.0</v>
       </c>
       <c r="V541" t="n" s="10">
-        <v>1115651.0</v>
+        <v>1112255.0</v>
       </c>
       <c r="W541" t="n" s="10">
-        <v>1492212.0</v>
+        <v>1504412.0</v>
       </c>
       <c r="X541" t="n" s="10">
-        <v>1458563.0</v>
+        <v>1451525.0</v>
       </c>
       <c r="Y541" t="n" s="10">
-        <v>543172.0</v>
+        <v>541509.0</v>
       </c>
       <c r="Z541" t="n" s="10">
-        <v>2898220.0</v>
+        <v>2922794.0</v>
       </c>
       <c r="AA541" t="n" s="10">
-        <v>4081395.0</v>
+        <v>4063242.0</v>
       </c>
       <c r="AB541" t="n" s="10">
-        <v>2453778.0</v>
+        <v>2444926.0</v>
       </c>
       <c r="AC541" t="n" s="10">
-        <v>15621.0</v>
+        <v>15594.0</v>
       </c>
     </row>
     <row r="542">
@@ -46597,82 +46602,82 @@
         <v>35</v>
       </c>
       <c r="D542" t="n" s="10">
-        <v>4359132.0</v>
+        <v>4358430.0</v>
       </c>
       <c r="E542" t="n" s="10">
-        <v>372863.0</v>
+        <v>377976.0</v>
       </c>
       <c r="F542" t="n" s="10">
-        <v>1795778.0</v>
+        <v>1793528.0</v>
       </c>
       <c r="G542" t="n" s="10">
-        <v>193156.0</v>
+        <v>195298.0</v>
       </c>
       <c r="H542" t="n" s="10">
-        <v>1062349.0</v>
+        <v>1071934.0</v>
       </c>
       <c r="I542" t="n" s="10">
-        <v>9149681.0</v>
+        <v>9137209.0</v>
       </c>
       <c r="J542" t="n" s="10">
-        <v>626721.0</v>
+        <v>627189.0</v>
       </c>
       <c r="K542" t="n" s="10">
-        <v>696148.0</v>
+        <v>693749.0</v>
       </c>
       <c r="L542" t="n" s="10">
-        <v>6558570.0</v>
+        <v>6559946.0</v>
       </c>
       <c r="M542" t="n" s="10">
-        <v>332864.0</v>
+        <v>335958.0</v>
       </c>
       <c r="N542" t="n" s="10">
-        <v>152312.0</v>
+        <v>152908.0</v>
       </c>
       <c r="O542" t="n" s="10">
-        <v>362713.0</v>
+        <v>362059.0</v>
       </c>
       <c r="P542" t="n" s="10">
-        <v>578976.0</v>
+        <v>581865.0</v>
       </c>
       <c r="Q542" t="n" s="10">
-        <v>111991.0</v>
+        <v>112124.0</v>
       </c>
       <c r="R542" t="n" s="10">
-        <v>8442006.0</v>
+        <v>8429035.0</v>
       </c>
       <c r="S542" t="n" s="10">
-        <v>6123737.0</v>
+        <v>6131277.0</v>
       </c>
       <c r="T542" t="n" s="10">
-        <v>6661103.0</v>
+        <v>6660885.0</v>
       </c>
       <c r="U542" t="n" s="10">
-        <v>836961.0</v>
+        <v>839421.0</v>
       </c>
       <c r="V542" t="n" s="10">
-        <v>1531839.0</v>
+        <v>1532487.0</v>
       </c>
       <c r="W542" t="n" s="10">
-        <v>2255947.0</v>
+        <v>2255031.0</v>
       </c>
       <c r="X542" t="n" s="10">
-        <v>1385648.0</v>
+        <v>1384445.0</v>
       </c>
       <c r="Y542" t="n" s="10">
-        <v>536315.0</v>
+        <v>542098.0</v>
       </c>
       <c r="Z542" t="n" s="10">
-        <v>3882328.0</v>
+        <v>3883879.0</v>
       </c>
       <c r="AA542" t="n" s="10">
-        <v>4134966.0</v>
+        <v>4130590.0</v>
       </c>
       <c r="AB542" t="n" s="10">
-        <v>2494499.0</v>
+        <v>2491573.0</v>
       </c>
       <c r="AC542" t="n" s="10">
-        <v>51670.0</v>
+        <v>51573.0</v>
       </c>
     </row>
     <row r="543">
@@ -46683,82 +46688,82 @@
         <v>35</v>
       </c>
       <c r="D543" t="n" s="10">
-        <v>5066667.0</v>
+        <v>5068284.0</v>
       </c>
       <c r="E543" t="n" s="10">
-        <v>424941.0</v>
+        <v>423011.0</v>
       </c>
       <c r="F543" t="n" s="10">
-        <v>1048280.0</v>
+        <v>1052402.0</v>
       </c>
       <c r="G543" t="n" s="10">
-        <v>71151.0</v>
+        <v>72285.0</v>
       </c>
       <c r="H543" t="n" s="10">
-        <v>692979.0</v>
+        <v>691625.0</v>
       </c>
       <c r="I543" t="n" s="10">
-        <v>5449954.0</v>
+        <v>5496187.0</v>
       </c>
       <c r="J543" t="n" s="10">
-        <v>245242.0</v>
+        <v>248144.0</v>
       </c>
       <c r="K543" t="n" s="10">
-        <v>2072758.0</v>
+        <v>2073526.0</v>
       </c>
       <c r="L543" t="n" s="10">
-        <v>5618453.0</v>
+        <v>5659122.0</v>
       </c>
       <c r="M543" t="n" s="10">
-        <v>162624.0</v>
+        <v>164222.0</v>
       </c>
       <c r="N543" t="n" s="10">
-        <v>88714.0</v>
+        <v>89519.0</v>
       </c>
       <c r="O543" t="n" s="10">
-        <v>207541.0</v>
+        <v>209373.0</v>
       </c>
       <c r="P543" t="n" s="10">
-        <v>287697.0</v>
+        <v>287685.0</v>
       </c>
       <c r="Q543" t="n" s="10">
-        <v>39013.0</v>
+        <v>40331.0</v>
       </c>
       <c r="R543" t="n" s="10">
-        <v>8491456.0</v>
+        <v>8497667.0</v>
       </c>
       <c r="S543" t="n" s="10">
-        <v>4132910.0</v>
+        <v>4136094.0</v>
       </c>
       <c r="T543" t="n" s="10">
-        <v>5776142.0</v>
+        <v>5788915.0</v>
       </c>
       <c r="U543" t="n" s="10">
-        <v>595716.0</v>
+        <v>595459.0</v>
       </c>
       <c r="V543" t="n" s="10">
-        <v>1251566.0</v>
+        <v>1242317.0</v>
       </c>
       <c r="W543" t="n" s="10">
-        <v>1522873.0</v>
+        <v>1504396.0</v>
       </c>
       <c r="X543" t="n" s="10">
-        <v>1470923.0</v>
+        <v>1464153.0</v>
       </c>
       <c r="Y543" t="n" s="10">
-        <v>562347.0</v>
+        <v>562996.0</v>
       </c>
       <c r="Z543" t="n" s="10">
-        <v>3060912.0</v>
+        <v>3112283.0</v>
       </c>
       <c r="AA543" t="n" s="10">
-        <v>4224014.0</v>
+        <v>4226737.0</v>
       </c>
       <c r="AB543" t="n" s="10">
-        <v>2588537.0</v>
+        <v>2582140.0</v>
       </c>
       <c r="AC543" t="n" s="10">
-        <v>25383.0</v>
+        <v>25445.0</v>
       </c>
     </row>
     <row r="544">
@@ -46772,82 +46777,82 @@
         <v>35</v>
       </c>
       <c r="D544" t="n" s="10">
-        <v>3944740.0</v>
+        <v>3951768.0</v>
       </c>
       <c r="E544" t="n" s="10">
-        <v>370114.0</v>
+        <v>374291.0</v>
       </c>
       <c r="F544" t="n" s="10">
-        <v>1671872.0</v>
+        <v>1673256.0</v>
       </c>
       <c r="G544" t="n" s="10">
-        <v>177749.0</v>
+        <v>178285.0</v>
       </c>
       <c r="H544" t="n" s="10">
-        <v>982919.0</v>
+        <v>979311.0</v>
       </c>
       <c r="I544" t="n" s="10">
-        <v>8438873.0</v>
+        <v>8417978.0</v>
       </c>
       <c r="J544" t="n" s="10">
-        <v>628026.0</v>
+        <v>627611.0</v>
       </c>
       <c r="K544" t="n" s="10">
-        <v>651206.0</v>
+        <v>648373.0</v>
       </c>
       <c r="L544" t="n" s="10">
-        <v>6685013.0</v>
+        <v>6684738.0</v>
       </c>
       <c r="M544" t="n" s="10">
-        <v>332094.0</v>
+        <v>333062.0</v>
       </c>
       <c r="N544" t="n" s="10">
-        <v>167797.0</v>
+        <v>168253.0</v>
       </c>
       <c r="O544" t="n" s="10">
-        <v>343328.0</v>
+        <v>343262.0</v>
       </c>
       <c r="P544" t="n" s="10">
-        <v>566545.0</v>
+        <v>568184.0</v>
       </c>
       <c r="Q544" t="n" s="10">
-        <v>106194.0</v>
+        <v>106151.0</v>
       </c>
       <c r="R544" t="n" s="10">
-        <v>8174000.0</v>
+        <v>8178626.0</v>
       </c>
       <c r="S544" t="n" s="10">
-        <v>6057837.0</v>
+        <v>6068574.0</v>
       </c>
       <c r="T544" t="n" s="10">
-        <v>6383517.0</v>
+        <v>6400443.0</v>
       </c>
       <c r="U544" t="n" s="10">
-        <v>917760.0</v>
+        <v>917902.0</v>
       </c>
       <c r="V544" t="n" s="10">
-        <v>1561355.0</v>
+        <v>1560879.0</v>
       </c>
       <c r="W544" t="n" s="10">
-        <v>2002200.0</v>
+        <v>1997793.0</v>
       </c>
       <c r="X544" t="n" s="10">
-        <v>1180588.0</v>
+        <v>1177729.0</v>
       </c>
       <c r="Y544" t="n" s="10">
-        <v>494158.0</v>
+        <v>494649.0</v>
       </c>
       <c r="Z544" t="n" s="10">
-        <v>3645713.0</v>
+        <v>3637069.0</v>
       </c>
       <c r="AA544" t="n" s="10">
-        <v>3630560.0</v>
+        <v>3632560.0</v>
       </c>
       <c r="AB544" t="n" s="10">
-        <v>2447963.0</v>
+        <v>2444032.0</v>
       </c>
       <c r="AC544" t="n" s="10">
-        <v>92019.0</v>
+        <v>91767.0</v>
       </c>
     </row>
     <row r="545">
@@ -46858,82 +46863,82 @@
         <v>35</v>
       </c>
       <c r="D545" t="n" s="10">
-        <v>4498024.0</v>
+        <v>4493225.0</v>
       </c>
       <c r="E545" t="n" s="10">
-        <v>439267.0</v>
+        <v>436139.0</v>
       </c>
       <c r="F545" t="n" s="10">
-        <v>1036109.0</v>
+        <v>1031981.0</v>
       </c>
       <c r="G545" t="n" s="10">
-        <v>72361.0</v>
+        <v>73470.0</v>
       </c>
       <c r="H545" t="n" s="10">
-        <v>718697.0</v>
+        <v>713176.0</v>
       </c>
       <c r="I545" t="n" s="10">
-        <v>5223145.0</v>
+        <v>5234488.0</v>
       </c>
       <c r="J545" t="n" s="10">
-        <v>259391.0</v>
+        <v>261738.0</v>
       </c>
       <c r="K545" t="n" s="10">
-        <v>1601792.0</v>
+        <v>1608324.0</v>
       </c>
       <c r="L545" t="n" s="10">
-        <v>5732588.0</v>
+        <v>5749833.0</v>
       </c>
       <c r="M545" t="n" s="10">
-        <v>180400.0</v>
+        <v>180821.0</v>
       </c>
       <c r="N545" t="n" s="10">
-        <v>90645.0</v>
+        <v>91709.0</v>
       </c>
       <c r="O545" t="n" s="10">
-        <v>210959.0</v>
+        <v>212788.0</v>
       </c>
       <c r="P545" t="n" s="10">
-        <v>299021.0</v>
+        <v>296759.0</v>
       </c>
       <c r="Q545" t="n" s="10">
-        <v>36722.0</v>
+        <v>45182.0</v>
       </c>
       <c r="R545" t="n" s="10">
-        <v>8618521.0</v>
+        <v>8608709.0</v>
       </c>
       <c r="S545" t="n" s="10">
-        <v>4149841.0</v>
+        <v>4142778.0</v>
       </c>
       <c r="T545" t="n" s="10">
-        <v>5484155.0</v>
+        <v>5484338.0</v>
       </c>
       <c r="U545" t="n" s="10">
-        <v>670828.0</v>
+        <v>667440.0</v>
       </c>
       <c r="V545" t="n" s="10">
-        <v>1214477.0</v>
+        <v>1203012.0</v>
       </c>
       <c r="W545" t="n" s="10">
-        <v>1332384.0</v>
+        <v>1323317.0</v>
       </c>
       <c r="X545" t="n" s="10">
-        <v>1206962.0</v>
+        <v>1196352.0</v>
       </c>
       <c r="Y545" t="n" s="10">
-        <v>510014.0</v>
+        <v>507471.0</v>
       </c>
       <c r="Z545" t="n" s="10">
-        <v>2729808.0</v>
+        <v>2834887.0</v>
       </c>
       <c r="AA545" t="n" s="10">
-        <v>3860907.0</v>
+        <v>3859995.0</v>
       </c>
       <c r="AB545" t="n" s="10">
-        <v>2517481.0</v>
+        <v>2501583.0</v>
       </c>
       <c r="AC545" t="n" s="10">
-        <v>29107.0</v>
+        <v>38918.0</v>
       </c>
     </row>
     <row r="546">
@@ -46947,82 +46952,82 @@
         <v>35</v>
       </c>
       <c r="D546" t="n" s="10">
-        <v>3838240.0</v>
+        <v>3844226.0</v>
       </c>
       <c r="E546" t="n" s="10">
-        <v>364860.0</v>
+        <v>380073.0</v>
       </c>
       <c r="F546" t="n" s="10">
-        <v>1620958.0</v>
+        <v>1617418.0</v>
       </c>
       <c r="G546" t="n" s="10">
-        <v>187675.0</v>
+        <v>187279.0</v>
       </c>
       <c r="H546" t="n" s="10">
-        <v>892044.0</v>
+        <v>892246.0</v>
       </c>
       <c r="I546" t="n" s="10">
-        <v>7140639.0</v>
+        <v>7119817.0</v>
       </c>
       <c r="J546" t="n" s="10">
-        <v>565278.0</v>
+        <v>564361.0</v>
       </c>
       <c r="K546" t="n" s="10">
-        <v>563882.0</v>
+        <v>559529.0</v>
       </c>
       <c r="L546" t="n" s="10">
-        <v>4725365.0</v>
+        <v>4720624.0</v>
       </c>
       <c r="M546" t="n" s="10">
-        <v>320925.0</v>
+        <v>321233.0</v>
       </c>
       <c r="N546" t="n" s="10">
-        <v>161154.0</v>
+        <v>161298.0</v>
       </c>
       <c r="O546" t="n" s="10">
-        <v>364140.0</v>
+        <v>365479.0</v>
       </c>
       <c r="P546" t="n" s="10">
-        <v>495927.0</v>
+        <v>498516.0</v>
       </c>
       <c r="Q546" t="n" s="10">
-        <v>41450.0</v>
+        <v>41462.0</v>
       </c>
       <c r="R546" t="n" s="10">
-        <v>7921074.0</v>
+        <v>7898385.0</v>
       </c>
       <c r="S546" t="n" s="10">
-        <v>5545763.0</v>
+        <v>5567809.0</v>
       </c>
       <c r="T546" t="n" s="10">
-        <v>6144675.0</v>
+        <v>6167466.0</v>
       </c>
       <c r="U546" t="n" s="10">
-        <v>674073.0</v>
+        <v>673469.0</v>
       </c>
       <c r="V546" t="n" s="10">
-        <v>1497919.0</v>
+        <v>1498459.0</v>
       </c>
       <c r="W546" t="n" s="10">
-        <v>2036077.0</v>
+        <v>2029260.0</v>
       </c>
       <c r="X546" t="n" s="10">
-        <v>1085961.0</v>
+        <v>1083853.0</v>
       </c>
       <c r="Y546" t="n" s="10">
-        <v>459050.0</v>
+        <v>462056.0</v>
       </c>
       <c r="Z546" t="n" s="10">
-        <v>3046438.0</v>
+        <v>3041937.0</v>
       </c>
       <c r="AA546" t="n" s="10">
-        <v>3665654.0</v>
+        <v>3660523.0</v>
       </c>
       <c r="AB546" t="n" s="10">
-        <v>2324168.0</v>
+        <v>2329966.0</v>
       </c>
       <c r="AC546" t="n" s="10">
-        <v>55662.0</v>
+        <v>55441.0</v>
       </c>
     </row>
     <row r="547">
@@ -47033,82 +47038,82 @@
         <v>35</v>
       </c>
       <c r="D547" t="n" s="10">
-        <v>4209800.0</v>
+        <v>4213504.0</v>
       </c>
       <c r="E547" t="n" s="10">
-        <v>399586.0</v>
+        <v>405339.0</v>
       </c>
       <c r="F547" t="n" s="10">
-        <v>966269.0</v>
+        <v>968027.0</v>
       </c>
       <c r="G547" t="n" s="10">
-        <v>68342.0</v>
+        <v>69600.0</v>
       </c>
       <c r="H547" t="n" s="10">
-        <v>651413.0</v>
+        <v>648173.0</v>
       </c>
       <c r="I547" t="n" s="10">
-        <v>4439608.0</v>
+        <v>4445089.0</v>
       </c>
       <c r="J547" t="n" s="10">
-        <v>213677.0</v>
+        <v>217090.0</v>
       </c>
       <c r="K547" t="n" s="10">
-        <v>1900773.0</v>
+        <v>1912111.0</v>
       </c>
       <c r="L547" t="n" s="10">
-        <v>4550110.0</v>
+        <v>4545634.0</v>
       </c>
       <c r="M547" t="n" s="10">
-        <v>140459.0</v>
+        <v>142647.0</v>
       </c>
       <c r="N547" t="n" s="10">
-        <v>100054.0</v>
+        <v>101256.0</v>
       </c>
       <c r="O547" t="n" s="10">
-        <v>245889.0</v>
+        <v>249915.0</v>
       </c>
       <c r="P547" t="n" s="10">
-        <v>290441.0</v>
+        <v>286676.0</v>
       </c>
       <c r="Q547" t="n" s="10">
-        <v>36921.0</v>
+        <v>34332.0</v>
       </c>
       <c r="R547" t="n" s="10">
-        <v>8193904.0</v>
+        <v>8160666.0</v>
       </c>
       <c r="S547" t="n" s="10">
-        <v>3428015.0</v>
+        <v>3505167.0</v>
       </c>
       <c r="T547" t="n" s="10">
-        <v>5330421.0</v>
+        <v>5338726.0</v>
       </c>
       <c r="U547" t="n" s="10">
-        <v>464489.0</v>
+        <v>459844.0</v>
       </c>
       <c r="V547" t="n" s="10">
-        <v>1007047.0</v>
+        <v>1002049.0</v>
       </c>
       <c r="W547" t="n" s="10">
-        <v>1192887.0</v>
+        <v>1162859.0</v>
       </c>
       <c r="X547" t="n" s="10">
-        <v>973270.0</v>
+        <v>962478.0</v>
       </c>
       <c r="Y547" t="n" s="10">
-        <v>462725.0</v>
+        <v>460145.0</v>
       </c>
       <c r="Z547" t="n" s="10">
-        <v>2173003.0</v>
+        <v>2169374.0</v>
       </c>
       <c r="AA547" t="n" s="10">
-        <v>3564673.0</v>
+        <v>3552338.0</v>
       </c>
       <c r="AB547" t="n" s="10">
-        <v>1994279.0</v>
+        <v>1986766.0</v>
       </c>
       <c r="AC547" t="n" s="10">
-        <v>9480.0</v>
+        <v>9335.0</v>
       </c>
     </row>
     <row r="548">
@@ -47122,82 +47127,82 @@
         <v>35</v>
       </c>
       <c r="D548" t="n" s="10">
-        <v>4376864.0</v>
+        <v>4384118.0</v>
       </c>
       <c r="E548" t="n" s="10">
-        <v>408210.0</v>
+        <v>411660.0</v>
       </c>
       <c r="F548" t="n" s="10">
-        <v>1864148.0</v>
+        <v>1889640.0</v>
       </c>
       <c r="G548" t="n" s="10">
-        <v>195578.0</v>
+        <v>196441.0</v>
       </c>
       <c r="H548" t="n" s="10">
-        <v>1025456.0</v>
+        <v>1064975.0</v>
       </c>
       <c r="I548" t="n" s="10">
-        <v>8726501.0</v>
+        <v>8710043.0</v>
       </c>
       <c r="J548" t="n" s="10">
-        <v>695494.0</v>
+        <v>688676.0</v>
       </c>
       <c r="K548" t="n" s="10">
-        <v>620186.0</v>
+        <v>620364.0</v>
       </c>
       <c r="L548" t="n" s="10">
-        <v>6549719.0</v>
+        <v>6574971.0</v>
       </c>
       <c r="M548" t="n" s="10">
-        <v>362052.0</v>
+        <v>362271.0</v>
       </c>
       <c r="N548" t="n" s="10">
-        <v>177881.0</v>
+        <v>179652.0</v>
       </c>
       <c r="O548" t="n" s="10">
-        <v>380868.0</v>
+        <v>380777.0</v>
       </c>
       <c r="P548" t="n" s="10">
-        <v>584295.0</v>
+        <v>593185.0</v>
       </c>
       <c r="Q548" t="n" s="10">
-        <v>44851.0</v>
+        <v>44359.0</v>
       </c>
       <c r="R548" t="n" s="10">
-        <v>8873922.0</v>
+        <v>8857352.0</v>
       </c>
       <c r="S548" t="n" s="10">
-        <v>6366019.0</v>
+        <v>6375508.0</v>
       </c>
       <c r="T548" t="n" s="10">
-        <v>6635622.0</v>
+        <v>6667528.0</v>
       </c>
       <c r="U548" t="n" s="10">
-        <v>810693.0</v>
+        <v>810124.0</v>
       </c>
       <c r="V548" t="n" s="10">
-        <v>1588979.0</v>
+        <v>1582226.0</v>
       </c>
       <c r="W548" t="n" s="10">
-        <v>2368731.0</v>
+        <v>2384448.0</v>
       </c>
       <c r="X548" t="n" s="10">
-        <v>1215181.0</v>
+        <v>1202857.0</v>
       </c>
       <c r="Y548" t="n" s="10">
-        <v>591123.0</v>
+        <v>596962.0</v>
       </c>
       <c r="Z548" t="n" s="10">
-        <v>3652130.0</v>
+        <v>3668350.0</v>
       </c>
       <c r="AA548" t="n" s="10">
-        <v>3982659.0</v>
+        <v>3958556.0</v>
       </c>
       <c r="AB548" t="n" s="10">
-        <v>2465319.0</v>
+        <v>2472524.0</v>
       </c>
       <c r="AC548" t="n" s="10">
-        <v>49354.0</v>
+        <v>48774.0</v>
       </c>
     </row>
     <row r="549">
@@ -47208,82 +47213,82 @@
         <v>35</v>
       </c>
       <c r="D549" t="n" s="10">
-        <v>4357869.0</v>
+        <v>4388719.0</v>
       </c>
       <c r="E549" t="n" s="10">
-        <v>495137.0</v>
+        <v>494246.0</v>
       </c>
       <c r="F549" t="n" s="10">
-        <v>1098152.0</v>
+        <v>1142054.0</v>
       </c>
       <c r="G549" t="n" s="10">
-        <v>74194.0</v>
+        <v>78606.0</v>
       </c>
       <c r="H549" t="n" s="10">
-        <v>693935.0</v>
+        <v>700151.0</v>
       </c>
       <c r="I549" t="n" s="10">
-        <v>5294786.0</v>
+        <v>5279269.0</v>
       </c>
       <c r="J549" t="n" s="10">
-        <v>197791.0</v>
+        <v>203453.0</v>
       </c>
       <c r="K549" t="n" s="10">
-        <v>1715941.0</v>
+        <v>1731338.0</v>
       </c>
       <c r="L549" t="n" s="10">
-        <v>5472346.0</v>
+        <v>5500367.0</v>
       </c>
       <c r="M549" t="n" s="10">
-        <v>165684.0</v>
+        <v>166776.0</v>
       </c>
       <c r="N549" t="n" s="10">
-        <v>97063.0</v>
+        <v>100812.0</v>
       </c>
       <c r="O549" t="n" s="10">
-        <v>221506.0</v>
+        <v>227783.0</v>
       </c>
       <c r="P549" t="n" s="10">
-        <v>290828.0</v>
+        <v>292497.0</v>
       </c>
       <c r="Q549" t="n" s="10">
-        <v>35210.0</v>
+        <v>32173.0</v>
       </c>
       <c r="R549" t="n" s="10">
-        <v>9017317.0</v>
+        <v>8966249.0</v>
       </c>
       <c r="S549" t="n" s="10">
-        <v>4262017.0</v>
+        <v>4229394.0</v>
       </c>
       <c r="T549" t="n" s="10">
-        <v>5831190.0</v>
+        <v>5849622.0</v>
       </c>
       <c r="U549" t="n" s="10">
-        <v>624453.0</v>
+        <v>622631.0</v>
       </c>
       <c r="V549" t="n" s="10">
-        <v>1228755.0</v>
+        <v>1205069.0</v>
       </c>
       <c r="W549" t="n" s="10">
-        <v>1539201.0</v>
+        <v>1537432.0</v>
       </c>
       <c r="X549" t="n" s="10">
-        <v>1175134.0</v>
+        <v>1163938.0</v>
       </c>
       <c r="Y549" t="n" s="10">
-        <v>549705.0</v>
+        <v>543477.0</v>
       </c>
       <c r="Z549" t="n" s="10">
-        <v>2542528.0</v>
+        <v>2512189.0</v>
       </c>
       <c r="AA549" t="n" s="10">
-        <v>4174103.0</v>
+        <v>4174989.0</v>
       </c>
       <c r="AB549" t="n" s="10">
-        <v>2540066.0</v>
+        <v>2548121.0</v>
       </c>
       <c r="AC549" t="n" s="10">
-        <v>7961.0</v>
+        <v>7937.0</v>
       </c>
     </row>
     <row r="550">
@@ -47297,82 +47302,82 @@
         <v>35</v>
       </c>
       <c r="D550" t="n" s="10">
-        <v>4574943.0</v>
+        <v>4618228.0</v>
       </c>
       <c r="E550" t="n" s="10">
-        <v>405483.0</v>
+        <v>408873.0</v>
       </c>
       <c r="F550" t="n" s="10">
-        <v>1884359.0</v>
+        <v>1875568.0</v>
       </c>
       <c r="G550" t="n" s="10">
-        <v>201287.0</v>
+        <v>202746.0</v>
       </c>
       <c r="H550" t="n" s="10">
-        <v>1072433.0</v>
+        <v>1091208.0</v>
       </c>
       <c r="I550" t="n" s="10">
-        <v>8838270.0</v>
+        <v>8794184.0</v>
       </c>
       <c r="J550" t="n" s="10">
-        <v>576988.0</v>
+        <v>579338.0</v>
       </c>
       <c r="K550" t="n" s="10">
-        <v>649335.0</v>
+        <v>659490.0</v>
       </c>
       <c r="L550" t="n" s="10">
-        <v>7607930.0</v>
+        <v>7679384.0</v>
       </c>
       <c r="M550" t="n" s="10">
-        <v>351979.0</v>
+        <v>351660.0</v>
       </c>
       <c r="N550" t="n" s="10">
-        <v>176582.0</v>
+        <v>182684.0</v>
       </c>
       <c r="O550" t="n" s="10">
-        <v>401745.0</v>
+        <v>402922.0</v>
       </c>
       <c r="P550" t="n" s="10">
-        <v>634739.0</v>
+        <v>640049.0</v>
       </c>
       <c r="Q550" t="n" s="10">
-        <v>52375.0</v>
+        <v>51835.0</v>
       </c>
       <c r="R550" t="n" s="10">
-        <v>8826805.0</v>
+        <v>8753774.0</v>
       </c>
       <c r="S550" t="n" s="10">
-        <v>6447188.0</v>
+        <v>6440890.0</v>
       </c>
       <c r="T550" t="n" s="10">
-        <v>6994998.0</v>
+        <v>7022221.0</v>
       </c>
       <c r="U550" t="n" s="10">
-        <v>910851.0</v>
+        <v>906543.0</v>
       </c>
       <c r="V550" t="n" s="10">
-        <v>1577450.0</v>
+        <v>1562615.0</v>
       </c>
       <c r="W550" t="n" s="10">
-        <v>2348857.0</v>
+        <v>2352121.0</v>
       </c>
       <c r="X550" t="n" s="10">
-        <v>1265670.0</v>
+        <v>1259425.0</v>
       </c>
       <c r="Y550" t="n" s="10">
-        <v>540507.0</v>
+        <v>543980.0</v>
       </c>
       <c r="Z550" t="n" s="10">
-        <v>3640807.0</v>
+        <v>3654395.0</v>
       </c>
       <c r="AA550" t="n" s="10">
-        <v>4218509.0</v>
+        <v>4194371.0</v>
       </c>
       <c r="AB550" t="n" s="10">
-        <v>2527225.0</v>
+        <v>2513307.0</v>
       </c>
       <c r="AC550" t="n" s="10">
-        <v>53133.0</v>
+        <v>52615.0</v>
       </c>
     </row>
     <row r="551">
@@ -47383,82 +47388,82 @@
         <v>35</v>
       </c>
       <c r="D551" t="n" s="10">
-        <v>4614064.0</v>
+        <v>4595638.0</v>
       </c>
       <c r="E551" t="n" s="10">
-        <v>406648.0</v>
+        <v>406301.0</v>
       </c>
       <c r="F551" t="n" s="10">
-        <v>1163793.0</v>
+        <v>1160897.0</v>
       </c>
       <c r="G551" t="n" s="10">
-        <v>67931.0</v>
+        <v>70423.0</v>
       </c>
       <c r="H551" t="n" s="10">
-        <v>770902.0</v>
+        <v>767104.0</v>
       </c>
       <c r="I551" t="n" s="10">
-        <v>5733024.0</v>
+        <v>5714257.0</v>
       </c>
       <c r="J551" t="n" s="10">
-        <v>239190.0</v>
+        <v>240553.0</v>
       </c>
       <c r="K551" t="n" s="10">
-        <v>2011241.0</v>
+        <v>2010949.0</v>
       </c>
       <c r="L551" t="n" s="10">
-        <v>5806590.0</v>
+        <v>5821182.0</v>
       </c>
       <c r="M551" t="n" s="10">
-        <v>180987.0</v>
+        <v>184203.0</v>
       </c>
       <c r="N551" t="n" s="10">
-        <v>88498.0</v>
+        <v>93383.0</v>
       </c>
       <c r="O551" t="n" s="10">
-        <v>239418.0</v>
+        <v>246343.0</v>
       </c>
       <c r="P551" t="n" s="10">
-        <v>296513.0</v>
+        <v>295390.0</v>
       </c>
       <c r="Q551" t="n" s="10">
-        <v>40997.0</v>
+        <v>39715.0</v>
       </c>
       <c r="R551" t="n" s="10">
-        <v>1.034424E7</v>
+        <v>1.0328363E7</v>
       </c>
       <c r="S551" t="n" s="10">
-        <v>4189658.0</v>
+        <v>4254455.0</v>
       </c>
       <c r="T551" t="n" s="10">
-        <v>6121095.0</v>
+        <v>6125895.0</v>
       </c>
       <c r="U551" t="n" s="10">
-        <v>625472.0</v>
+        <v>624088.0</v>
       </c>
       <c r="V551" t="n" s="10">
-        <v>1299915.0</v>
+        <v>1278194.0</v>
       </c>
       <c r="W551" t="n" s="10">
-        <v>1530061.0</v>
+        <v>1502443.0</v>
       </c>
       <c r="X551" t="n" s="10">
-        <v>1640694.0</v>
+        <v>1624145.0</v>
       </c>
       <c r="Y551" t="n" s="10">
-        <v>613664.0</v>
+        <v>618697.0</v>
       </c>
       <c r="Z551" t="n" s="10">
-        <v>2781489.0</v>
+        <v>2762254.0</v>
       </c>
       <c r="AA551" t="n" s="10">
-        <v>4487701.0</v>
+        <v>4456347.0</v>
       </c>
       <c r="AB551" t="n" s="10">
-        <v>2479769.0</v>
+        <v>2460386.0</v>
       </c>
       <c r="AC551" t="n" s="10">
-        <v>7155.0</v>
+        <v>7162.0</v>
       </c>
     </row>
     <row r="552">
@@ -47471,83 +47476,83 @@
       <c r="C552" t="s" s="13">
         <v>35</v>
       </c>
-      <c r="D552" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="E552" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="F552" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="G552" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="H552" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="I552" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="J552" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="K552" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="L552" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="M552" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="N552" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="O552" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="P552" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="Q552" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="R552" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="S552" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="T552" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="U552" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="V552" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="W552" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="X552" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="Y552" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="Z552" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="AA552" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="AB552" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="AC552" t="s" s="10">
-        <v>69</v>
+      <c r="D552" t="n" s="10">
+        <v>4408800.0</v>
+      </c>
+      <c r="E552" t="n" s="10">
+        <v>423335.0</v>
+      </c>
+      <c r="F552" t="n" s="10">
+        <v>1947777.0</v>
+      </c>
+      <c r="G552" t="n" s="10">
+        <v>203172.0</v>
+      </c>
+      <c r="H552" t="n" s="10">
+        <v>1136685.0</v>
+      </c>
+      <c r="I552" t="n" s="10">
+        <v>9457626.0</v>
+      </c>
+      <c r="J552" t="n" s="10">
+        <v>690806.0</v>
+      </c>
+      <c r="K552" t="n" s="10">
+        <v>685637.0</v>
+      </c>
+      <c r="L552" t="n" s="10">
+        <v>6671031.0</v>
+      </c>
+      <c r="M552" t="n" s="10">
+        <v>364543.0</v>
+      </c>
+      <c r="N552" t="n" s="10">
+        <v>179781.0</v>
+      </c>
+      <c r="O552" t="n" s="10">
+        <v>400697.0</v>
+      </c>
+      <c r="P552" t="n" s="10">
+        <v>679592.0</v>
+      </c>
+      <c r="Q552" t="n" s="10">
+        <v>45024.0</v>
+      </c>
+      <c r="R552" t="n" s="10">
+        <v>8924799.0</v>
+      </c>
+      <c r="S552" t="n" s="10">
+        <v>6761037.0</v>
+      </c>
+      <c r="T552" t="n" s="10">
+        <v>7008589.0</v>
+      </c>
+      <c r="U552" t="n" s="10">
+        <v>903954.0</v>
+      </c>
+      <c r="V552" t="n" s="10">
+        <v>1633717.0</v>
+      </c>
+      <c r="W552" t="n" s="10">
+        <v>2468367.0</v>
+      </c>
+      <c r="X552" t="n" s="10">
+        <v>1413286.0</v>
+      </c>
+      <c r="Y552" t="n" s="10">
+        <v>559960.0</v>
+      </c>
+      <c r="Z552" t="n" s="10">
+        <v>4026951.0</v>
+      </c>
+      <c r="AA552" t="n" s="10">
+        <v>4439464.0</v>
+      </c>
+      <c r="AB552" t="n" s="10">
+        <v>2627324.0</v>
+      </c>
+      <c r="AC552" t="n" s="10">
+        <v>54414.0</v>
       </c>
     </row>
     <row r="553">
@@ -47557,83 +47562,83 @@
       <c r="C553" t="s" s="13">
         <v>35</v>
       </c>
-      <c r="D553" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="E553" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="F553" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="G553" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="H553" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="I553" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="J553" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="K553" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="L553" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="M553" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="N553" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="O553" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="P553" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="Q553" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="R553" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="S553" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="T553" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="U553" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="V553" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="W553" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="X553" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="Y553" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="Z553" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="AA553" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="AB553" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="AC553" t="s" s="10">
-        <v>69</v>
+      <c r="D553" t="n" s="10">
+        <v>4935875.0</v>
+      </c>
+      <c r="E553" t="n" s="10">
+        <v>464128.0</v>
+      </c>
+      <c r="F553" t="n" s="10">
+        <v>1248134.0</v>
+      </c>
+      <c r="G553" t="n" s="10">
+        <v>73051.0</v>
+      </c>
+      <c r="H553" t="n" s="10">
+        <v>797647.0</v>
+      </c>
+      <c r="I553" t="n" s="10">
+        <v>5764259.0</v>
+      </c>
+      <c r="J553" t="n" s="10">
+        <v>259263.0</v>
+      </c>
+      <c r="K553" t="n" s="10">
+        <v>1656125.0</v>
+      </c>
+      <c r="L553" t="n" s="10">
+        <v>6031392.0</v>
+      </c>
+      <c r="M553" t="n" s="10">
+        <v>194919.0</v>
+      </c>
+      <c r="N553" t="n" s="10">
+        <v>126021.0</v>
+      </c>
+      <c r="O553" t="n" s="10">
+        <v>261422.0</v>
+      </c>
+      <c r="P553" t="n" s="10">
+        <v>302452.0</v>
+      </c>
+      <c r="Q553" t="n" s="10">
+        <v>31762.0</v>
+      </c>
+      <c r="R553" t="n" s="10">
+        <v>1.0770349E7</v>
+      </c>
+      <c r="S553" t="n" s="10">
+        <v>4287578.0</v>
+      </c>
+      <c r="T553" t="n" s="10">
+        <v>6447462.0</v>
+      </c>
+      <c r="U553" t="n" s="10">
+        <v>700545.0</v>
+      </c>
+      <c r="V553" t="n" s="10">
+        <v>1454171.0</v>
+      </c>
+      <c r="W553" t="n" s="10">
+        <v>1542703.0</v>
+      </c>
+      <c r="X553" t="n" s="10">
+        <v>1780564.0</v>
+      </c>
+      <c r="Y553" t="n" s="10">
+        <v>668076.0</v>
+      </c>
+      <c r="Z553" t="n" s="10">
+        <v>3349961.0</v>
+      </c>
+      <c r="AA553" t="n" s="10">
+        <v>4760231.0</v>
+      </c>
+      <c r="AB553" t="n" s="10">
+        <v>2892397.0</v>
+      </c>
+      <c r="AC553" t="n" s="10">
+        <v>6462.0</v>
       </c>
     </row>
     <row r="554">
@@ -47646,83 +47651,83 @@
       <c r="C554" t="s" s="13">
         <v>35</v>
       </c>
-      <c r="D554" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="E554" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="F554" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="G554" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="H554" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="I554" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="J554" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="K554" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="L554" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="M554" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="N554" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="O554" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="P554" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="Q554" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="R554" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="S554" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="T554" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="U554" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="V554" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="W554" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="X554" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="Y554" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="Z554" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="AA554" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="AB554" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="AC554" t="s" s="10">
-        <v>69</v>
+      <c r="D554" t="n" s="10">
+        <v>4219506.0</v>
+      </c>
+      <c r="E554" t="n" s="10">
+        <v>347192.0</v>
+      </c>
+      <c r="F554" t="n" s="10">
+        <v>1797350.0</v>
+      </c>
+      <c r="G554" t="n" s="10">
+        <v>167553.0</v>
+      </c>
+      <c r="H554" t="n" s="10">
+        <v>1023409.0</v>
+      </c>
+      <c r="I554" t="n" s="10">
+        <v>8472205.0</v>
+      </c>
+      <c r="J554" t="n" s="10">
+        <v>586601.0</v>
+      </c>
+      <c r="K554" t="n" s="10">
+        <v>625528.0</v>
+      </c>
+      <c r="L554" t="n" s="10">
+        <v>6078589.0</v>
+      </c>
+      <c r="M554" t="n" s="10">
+        <v>332775.0</v>
+      </c>
+      <c r="N554" t="n" s="10">
+        <v>175408.0</v>
+      </c>
+      <c r="O554" t="n" s="10">
+        <v>382589.0</v>
+      </c>
+      <c r="P554" t="n" s="10">
+        <v>638133.0</v>
+      </c>
+      <c r="Q554" t="n" s="10">
+        <v>47416.0</v>
+      </c>
+      <c r="R554" t="n" s="10">
+        <v>9643341.0</v>
+      </c>
+      <c r="S554" t="n" s="10">
+        <v>5927153.0</v>
+      </c>
+      <c r="T554" t="n" s="10">
+        <v>6810867.0</v>
+      </c>
+      <c r="U554" t="n" s="10">
+        <v>780385.0</v>
+      </c>
+      <c r="V554" t="n" s="10">
+        <v>1424540.0</v>
+      </c>
+      <c r="W554" t="n" s="10">
+        <v>2215018.0</v>
+      </c>
+      <c r="X554" t="n" s="10">
+        <v>1192853.0</v>
+      </c>
+      <c r="Y554" t="n" s="10">
+        <v>474354.0</v>
+      </c>
+      <c r="Z554" t="n" s="10">
+        <v>3496270.0</v>
+      </c>
+      <c r="AA554" t="n" s="10">
+        <v>3977475.0</v>
+      </c>
+      <c r="AB554" t="n" s="10">
+        <v>2362036.0</v>
+      </c>
+      <c r="AC554" t="n" s="10">
+        <v>57848.0</v>
       </c>
     </row>
     <row r="555">
@@ -47732,93 +47737,2198 @@
       <c r="C555" t="s" s="13">
         <v>35</v>
       </c>
-      <c r="D555" t="s" s="10">
+      <c r="D555" t="n" s="10">
+        <v>4409211.0</v>
+      </c>
+      <c r="E555" t="n" s="10">
+        <v>399913.0</v>
+      </c>
+      <c r="F555" t="n" s="10">
+        <v>1184752.0</v>
+      </c>
+      <c r="G555" t="n" s="10">
+        <v>58572.0</v>
+      </c>
+      <c r="H555" t="n" s="10">
+        <v>767734.0</v>
+      </c>
+      <c r="I555" t="n" s="10">
+        <v>5470666.0</v>
+      </c>
+      <c r="J555" t="n" s="10">
+        <v>210521.0</v>
+      </c>
+      <c r="K555" t="n" s="10">
+        <v>1610128.0</v>
+      </c>
+      <c r="L555" t="n" s="10">
+        <v>5470863.0</v>
+      </c>
+      <c r="M555" t="n" s="10">
+        <v>158908.0</v>
+      </c>
+      <c r="N555" t="n" s="10">
+        <v>80166.0</v>
+      </c>
+      <c r="O555" t="n" s="10">
+        <v>230742.0</v>
+      </c>
+      <c r="P555" t="n" s="10">
+        <v>338582.0</v>
+      </c>
+      <c r="Q555" t="n" s="10">
+        <v>34636.0</v>
+      </c>
+      <c r="R555" t="n" s="10">
+        <v>1.0467216E7</v>
+      </c>
+      <c r="S555" t="n" s="10">
+        <v>4206072.0</v>
+      </c>
+      <c r="T555" t="n" s="10">
+        <v>6063268.0</v>
+      </c>
+      <c r="U555" t="n" s="10">
+        <v>580881.0</v>
+      </c>
+      <c r="V555" t="n" s="10">
+        <v>1151050.0</v>
+      </c>
+      <c r="W555" t="n" s="10">
+        <v>1475188.0</v>
+      </c>
+      <c r="X555" t="n" s="10">
+        <v>1596851.0</v>
+      </c>
+      <c r="Y555" t="n" s="10">
+        <v>521002.0</v>
+      </c>
+      <c r="Z555" t="n" s="10">
+        <v>3383774.0</v>
+      </c>
+      <c r="AA555" t="n" s="10">
+        <v>4380017.0</v>
+      </c>
+      <c r="AB555" t="n" s="10">
+        <v>2406231.0</v>
+      </c>
+      <c r="AC555" t="n" s="10">
+        <v>9848.0</v>
+      </c>
+    </row>
+    <row r="556" ht="50.6" customHeight="true">
+      <c r="A556" t="s" s="14">
         <v>69</v>
       </c>
-      <c r="E555" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="F555" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="G555" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="H555" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="I555" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="J555" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="K555" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="L555" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="M555" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="N555" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="O555" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="P555" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="Q555" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="R555" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="S555" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="T555" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="U555" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="V555" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="W555" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="X555" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="Y555" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="Z555" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="AA555" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="AB555" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="AC555" t="s" s="10">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="556">
-      <c r="A556" t="s" s="11">
-        <v>70</v>
+    </row>
+    <row r="557">
+      <c r="A557" t="s" s="9">
+        <v>33</v>
+      </c>
+      <c r="B557" t="s" s="9">
+        <v>34</v>
+      </c>
+      <c r="C557" t="s" s="13">
+        <v>35</v>
+      </c>
+      <c r="D557" t="n" s="10">
+        <v>4001226.0</v>
+      </c>
+      <c r="E557" t="n" s="10">
+        <v>353422.0</v>
+      </c>
+      <c r="F557" t="n" s="10">
+        <v>1557467.0</v>
+      </c>
+      <c r="G557" t="n" s="10">
+        <v>157322.0</v>
+      </c>
+      <c r="H557" t="n" s="10">
+        <v>918004.0</v>
+      </c>
+      <c r="I557" t="n" s="10">
+        <v>8230914.0</v>
+      </c>
+      <c r="J557" t="n" s="10">
+        <v>577066.0</v>
+      </c>
+      <c r="K557" t="n" s="10">
+        <v>651912.0</v>
+      </c>
+      <c r="L557" t="n" s="10">
+        <v>5930916.0</v>
+      </c>
+      <c r="M557" t="n" s="10">
+        <v>301394.0</v>
+      </c>
+      <c r="N557" t="n" s="10">
+        <v>160942.0</v>
+      </c>
+      <c r="O557" t="n" s="10">
+        <v>303439.0</v>
+      </c>
+      <c r="P557" t="n" s="10">
+        <v>604269.0</v>
+      </c>
+      <c r="Q557" t="n" s="10">
+        <v>37273.0</v>
+      </c>
+      <c r="R557" t="n" s="10">
+        <v>8054711.0</v>
+      </c>
+      <c r="S557" t="n" s="10">
+        <v>5681375.0</v>
+      </c>
+      <c r="T557" t="n" s="10">
+        <v>6086997.0</v>
+      </c>
+      <c r="U557" t="n" s="10">
+        <v>776706.0</v>
+      </c>
+      <c r="V557" t="n" s="10">
+        <v>1464707.0</v>
+      </c>
+      <c r="W557" t="n" s="10">
+        <v>1982052.0</v>
+      </c>
+      <c r="X557" t="n" s="10">
+        <v>1156280.0</v>
+      </c>
+      <c r="Y557" t="n" s="10">
+        <v>467905.0</v>
+      </c>
+      <c r="Z557" t="n" s="10">
+        <v>3626203.0</v>
+      </c>
+      <c r="AA557" t="n" s="10">
+        <v>3773680.0</v>
+      </c>
+      <c r="AB557" t="n" s="10">
+        <v>2106004.0</v>
+      </c>
+      <c r="AC557" t="n" s="10">
+        <v>70208.0</v>
       </c>
     </row>
     <row r="558">
-      <c r="A558" t="s" s="12">
+      <c r="B558" t="s" s="9">
+        <v>36</v>
+      </c>
+      <c r="C558" t="s" s="13">
+        <v>35</v>
+      </c>
+      <c r="D558" t="n" s="10">
+        <v>3947982.0</v>
+      </c>
+      <c r="E558" t="n" s="10">
+        <v>478080.0</v>
+      </c>
+      <c r="F558" t="n" s="10">
+        <v>1041040.0</v>
+      </c>
+      <c r="G558" t="n" s="10">
+        <v>57844.0</v>
+      </c>
+      <c r="H558" t="n" s="10">
+        <v>668558.0</v>
+      </c>
+      <c r="I558" t="n" s="10">
+        <v>4947059.0</v>
+      </c>
+      <c r="J558" t="n" s="10">
+        <v>213453.0</v>
+      </c>
+      <c r="K558" t="n" s="10">
+        <v>1830215.0</v>
+      </c>
+      <c r="L558" t="n" s="10">
+        <v>4647153.0</v>
+      </c>
+      <c r="M558" t="n" s="10">
+        <v>170309.0</v>
+      </c>
+      <c r="N558" t="n" s="10">
+        <v>80075.0</v>
+      </c>
+      <c r="O558" t="n" s="10">
+        <v>199641.0</v>
+      </c>
+      <c r="P558" t="n" s="10">
+        <v>275521.0</v>
+      </c>
+      <c r="Q558" t="n" s="10">
+        <v>31089.0</v>
+      </c>
+      <c r="R558" t="n" s="10">
+        <v>9743024.0</v>
+      </c>
+      <c r="S558" t="n" s="10">
+        <v>3668852.0</v>
+      </c>
+      <c r="T558" t="n" s="10">
+        <v>5215106.0</v>
+      </c>
+      <c r="U558" t="n" s="10">
+        <v>561828.0</v>
+      </c>
+      <c r="V558" t="n" s="10">
+        <v>1202606.0</v>
+      </c>
+      <c r="W558" t="n" s="10">
+        <v>1268202.0</v>
+      </c>
+      <c r="X558" t="n" s="10">
+        <v>1430996.0</v>
+      </c>
+      <c r="Y558" t="n" s="10">
+        <v>500877.0</v>
+      </c>
+      <c r="Z558" t="n" s="10">
+        <v>2845309.0</v>
+      </c>
+      <c r="AA558" t="n" s="10">
+        <v>4127023.0</v>
+      </c>
+      <c r="AB558" t="n" s="10">
+        <v>2307416.0</v>
+      </c>
+      <c r="AC558" t="n" s="10">
+        <v>8533.0</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="s" s="9">
+        <v>37</v>
+      </c>
+      <c r="B559" t="s" s="9">
+        <v>34</v>
+      </c>
+      <c r="C559" t="s" s="13">
+        <v>35</v>
+      </c>
+      <c r="D559" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="E559" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="F559" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="G559" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="H559" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="I559" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="J559" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="K559" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="L559" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="M559" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="N559" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="O559" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="P559" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="Q559" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="R559" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="S559" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="T559" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="U559" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="V559" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="W559" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="X559" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="Y559" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="Z559" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="AA559" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="AB559" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="AC559" t="s" s="10">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="B560" t="s" s="9">
+        <v>36</v>
+      </c>
+      <c r="C560" t="s" s="13">
+        <v>35</v>
+      </c>
+      <c r="D560" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="E560" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="F560" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="G560" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="H560" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="I560" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="J560" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="K560" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="L560" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="M560" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="N560" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="O560" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="P560" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="Q560" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="R560" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="S560" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="T560" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="U560" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="V560" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="W560" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="X560" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="Y560" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="Z560" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="AA560" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="AB560" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="AC560" t="s" s="10">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="s" s="9">
+        <v>38</v>
+      </c>
+      <c r="B561" t="s" s="9">
+        <v>34</v>
+      </c>
+      <c r="C561" t="s" s="13">
+        <v>35</v>
+      </c>
+      <c r="D561" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="E561" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="F561" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="G561" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="H561" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="I561" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="J561" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="K561" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="L561" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="M561" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="N561" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="O561" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="P561" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="Q561" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="R561" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="S561" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="T561" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="U561" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="V561" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="W561" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="X561" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="Y561" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="Z561" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="AA561" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="AB561" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="AC561" t="s" s="10">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="B562" t="s" s="9">
+        <v>36</v>
+      </c>
+      <c r="C562" t="s" s="13">
+        <v>35</v>
+      </c>
+      <c r="D562" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="E562" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="F562" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="G562" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="H562" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="I562" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="J562" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="K562" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="L562" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="M562" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="N562" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="O562" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="P562" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="Q562" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="R562" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="S562" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="T562" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="U562" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="V562" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="W562" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="X562" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="Y562" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="Z562" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="AA562" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="AB562" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="AC562" t="s" s="10">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="s" s="9">
+        <v>39</v>
+      </c>
+      <c r="B563" t="s" s="9">
+        <v>34</v>
+      </c>
+      <c r="C563" t="s" s="13">
+        <v>35</v>
+      </c>
+      <c r="D563" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="E563" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="F563" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="G563" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="H563" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="I563" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="J563" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="K563" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="L563" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="M563" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="N563" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="O563" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="P563" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="Q563" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="R563" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="S563" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="T563" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="U563" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="V563" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="W563" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="X563" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="Y563" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="Z563" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="AA563" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="AB563" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="AC563" t="s" s="10">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="B564" t="s" s="9">
+        <v>36</v>
+      </c>
+      <c r="C564" t="s" s="13">
+        <v>35</v>
+      </c>
+      <c r="D564" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="E564" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="F564" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="G564" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="H564" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="I564" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="J564" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="K564" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="L564" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="M564" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="N564" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="O564" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="P564" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="Q564" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="R564" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="S564" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="T564" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="U564" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="V564" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="W564" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="X564" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="Y564" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="Z564" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="AA564" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="AB564" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="AC564" t="s" s="10">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="s" s="9">
+        <v>40</v>
+      </c>
+      <c r="B565" t="s" s="9">
+        <v>34</v>
+      </c>
+      <c r="C565" t="s" s="13">
+        <v>35</v>
+      </c>
+      <c r="D565" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="E565" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="F565" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="G565" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="H565" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="I565" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="J565" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="K565" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="L565" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="M565" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="N565" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="O565" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="P565" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="Q565" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="R565" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="S565" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="T565" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="U565" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="V565" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="W565" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="X565" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="Y565" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="Z565" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="AA565" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="AB565" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="AC565" t="s" s="10">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="B566" t="s" s="9">
+        <v>36</v>
+      </c>
+      <c r="C566" t="s" s="13">
+        <v>35</v>
+      </c>
+      <c r="D566" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="E566" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="F566" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="G566" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="H566" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="I566" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="J566" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="K566" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="L566" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="M566" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="N566" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="O566" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="P566" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="Q566" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="R566" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="S566" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="T566" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="U566" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="V566" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="W566" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="X566" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="Y566" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="Z566" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="AA566" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="AB566" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="AC566" t="s" s="10">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="s" s="9">
+        <v>41</v>
+      </c>
+      <c r="B567" t="s" s="9">
+        <v>34</v>
+      </c>
+      <c r="C567" t="s" s="13">
+        <v>35</v>
+      </c>
+      <c r="D567" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="E567" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="F567" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="G567" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="H567" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="I567" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="J567" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="K567" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="L567" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="M567" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="N567" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="O567" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="P567" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="Q567" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="R567" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="S567" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="T567" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="U567" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="V567" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="W567" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="X567" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="Y567" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="Z567" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="AA567" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="AB567" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="AC567" t="s" s="10">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="B568" t="s" s="9">
+        <v>36</v>
+      </c>
+      <c r="C568" t="s" s="13">
+        <v>35</v>
+      </c>
+      <c r="D568" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="E568" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="F568" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="G568" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="H568" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="I568" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="J568" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="K568" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="L568" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="M568" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="N568" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="O568" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="P568" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="Q568" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="R568" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="S568" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="T568" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="U568" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="V568" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="W568" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="X568" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="Y568" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="Z568" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="AA568" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="AB568" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="AC568" t="s" s="10">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="s" s="9">
+        <v>42</v>
+      </c>
+      <c r="B569" t="s" s="9">
+        <v>34</v>
+      </c>
+      <c r="C569" t="s" s="13">
+        <v>35</v>
+      </c>
+      <c r="D569" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="E569" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="F569" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="G569" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="H569" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="I569" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="J569" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="K569" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="L569" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="M569" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="N569" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="O569" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="P569" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="Q569" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="R569" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="S569" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="T569" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="U569" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="V569" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="W569" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="X569" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="Y569" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="Z569" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="AA569" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="AB569" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="AC569" t="s" s="10">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="B570" t="s" s="9">
+        <v>36</v>
+      </c>
+      <c r="C570" t="s" s="13">
+        <v>35</v>
+      </c>
+      <c r="D570" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="E570" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="F570" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="G570" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="H570" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="I570" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="J570" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="K570" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="L570" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="M570" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="N570" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="O570" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="P570" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="Q570" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="R570" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="S570" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="T570" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="U570" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="V570" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="W570" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="X570" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="Y570" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="Z570" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="AA570" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="AB570" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="AC570" t="s" s="10">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="s" s="9">
+        <v>43</v>
+      </c>
+      <c r="B571" t="s" s="9">
+        <v>34</v>
+      </c>
+      <c r="C571" t="s" s="13">
+        <v>35</v>
+      </c>
+      <c r="D571" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="E571" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="F571" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="G571" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="H571" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="I571" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="J571" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="K571" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="L571" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="M571" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="N571" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="O571" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="P571" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="Q571" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="R571" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="S571" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="T571" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="U571" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="V571" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="W571" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="X571" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="Y571" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="Z571" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="AA571" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="AB571" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="AC571" t="s" s="10">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="B572" t="s" s="9">
+        <v>36</v>
+      </c>
+      <c r="C572" t="s" s="13">
+        <v>35</v>
+      </c>
+      <c r="D572" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="E572" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="F572" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="G572" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="H572" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="I572" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="J572" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="K572" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="L572" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="M572" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="N572" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="O572" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="P572" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="Q572" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="R572" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="S572" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="T572" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="U572" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="V572" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="W572" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="X572" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="Y572" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="Z572" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="AA572" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="AB572" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="AC572" t="s" s="10">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="s" s="9">
+        <v>44</v>
+      </c>
+      <c r="B573" t="s" s="9">
+        <v>34</v>
+      </c>
+      <c r="C573" t="s" s="13">
+        <v>35</v>
+      </c>
+      <c r="D573" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="E573" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="F573" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="G573" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="H573" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="I573" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="J573" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="K573" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="L573" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="M573" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="N573" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="O573" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="P573" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="Q573" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="R573" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="S573" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="T573" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="U573" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="V573" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="W573" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="X573" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="Y573" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="Z573" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="AA573" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="AB573" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="AC573" t="s" s="10">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="B574" t="s" s="9">
+        <v>36</v>
+      </c>
+      <c r="C574" t="s" s="13">
+        <v>35</v>
+      </c>
+      <c r="D574" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="E574" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="F574" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="G574" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="H574" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="I574" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="J574" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="K574" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="L574" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="M574" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="N574" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="O574" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="P574" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="Q574" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="R574" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="S574" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="T574" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="U574" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="V574" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="W574" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="X574" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="Y574" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="Z574" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="AA574" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="AB574" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="AC574" t="s" s="10">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="s" s="9">
+        <v>45</v>
+      </c>
+      <c r="B575" t="s" s="9">
+        <v>34</v>
+      </c>
+      <c r="C575" t="s" s="13">
+        <v>35</v>
+      </c>
+      <c r="D575" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="E575" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="F575" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="G575" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="H575" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="I575" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="J575" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="K575" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="L575" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="M575" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="N575" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="O575" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="P575" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="Q575" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="R575" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="S575" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="T575" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="U575" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="V575" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="W575" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="X575" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="Y575" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="Z575" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="AA575" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="AB575" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="AC575" t="s" s="10">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="B576" t="s" s="9">
+        <v>36</v>
+      </c>
+      <c r="C576" t="s" s="13">
+        <v>35</v>
+      </c>
+      <c r="D576" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="E576" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="F576" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="G576" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="H576" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="I576" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="J576" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="K576" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="L576" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="M576" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="N576" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="O576" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="P576" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="Q576" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="R576" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="S576" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="T576" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="U576" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="V576" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="W576" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="X576" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="Y576" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="Z576" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="AA576" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="AB576" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="AC576" t="s" s="10">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="s" s="9">
+        <v>46</v>
+      </c>
+      <c r="B577" t="s" s="9">
+        <v>34</v>
+      </c>
+      <c r="C577" t="s" s="13">
+        <v>35</v>
+      </c>
+      <c r="D577" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="E577" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="F577" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="G577" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="H577" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="I577" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="J577" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="K577" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="L577" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="M577" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="N577" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="O577" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="P577" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="Q577" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="R577" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="S577" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="T577" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="U577" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="V577" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="W577" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="X577" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="Y577" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="Z577" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="AA577" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="AB577" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="AC577" t="s" s="10">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="B578" t="s" s="9">
+        <v>36</v>
+      </c>
+      <c r="C578" t="s" s="13">
+        <v>35</v>
+      </c>
+      <c r="D578" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="E578" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="F578" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="G578" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="H578" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="I578" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="J578" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="K578" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="L578" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="M578" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="N578" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="O578" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="P578" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="Q578" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="R578" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="S578" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="T578" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="U578" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="V578" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="W578" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="X578" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="Y578" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="Z578" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="AA578" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="AB578" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="AC578" t="s" s="10">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="s" s="9">
+        <v>47</v>
+      </c>
+      <c r="B579" t="s" s="9">
+        <v>34</v>
+      </c>
+      <c r="C579" t="s" s="13">
+        <v>35</v>
+      </c>
+      <c r="D579" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="E579" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="F579" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="G579" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="H579" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="I579" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="J579" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="K579" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="L579" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="M579" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="N579" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="O579" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="P579" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="Q579" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="R579" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="S579" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="T579" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="U579" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="V579" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="W579" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="X579" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="Y579" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="Z579" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="AA579" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="AB579" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="AC579" t="s" s="10">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="B580" t="s" s="9">
+        <v>36</v>
+      </c>
+      <c r="C580" t="s" s="13">
+        <v>35</v>
+      </c>
+      <c r="D580" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="E580" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="F580" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="G580" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="H580" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="I580" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="J580" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="K580" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="L580" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="M580" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="N580" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="O580" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="P580" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="Q580" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="R580" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="S580" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="T580" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="U580" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="V580" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="W580" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="X580" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="Y580" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="Z580" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="AA580" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="AB580" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="AC580" t="s" s="10">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="s" s="11">
         <v>71</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="s" s="12">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -47850,11 +49960,12 @@
     <mergeCell ref="A481:AC481"/>
     <mergeCell ref="A506:AC506"/>
     <mergeCell ref="A531:AC531"/>
+    <mergeCell ref="A556:AC556"/>
     <mergeCell ref="A1:AC1"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 28.12.21 / 11:08:27&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 01.04.22 / 03:45:08&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>